--- a/DATA_DIPA/DIPA_2026.xlsx
+++ b/DATA_DIPA/DIPA_2026.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,22 +31,13 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00366092"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -69,8 +60,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>

--- a/DATA_DIPA/DIPA_2026.xlsx
+++ b/DATA_DIPA/DIPA_2026.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +31,22 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,8 +69,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,10 +535,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45911</v>
+        <v>44945</v>
       </c>
       <c r="C2" t="n">
-        <v>12375659000</v>
+        <v>7646373000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -538,7 +547,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -546,37 +555,19 @@
           <t>006</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B08</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DIPA-006.01.2.007130/2025</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SPAN</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0740301400187081</t>
-        </is>
-      </c>
+          <t>DIPA-006.01.2.007130/2022</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>2026</v>
       </c>
@@ -598,19 +589,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45968</v>
+        <v>44945</v>
       </c>
       <c r="C3" t="n">
-        <v>9842161000</v>
+        <v>6802773000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,37 +609,19 @@
           <t>006</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A06</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DIPA-006.01.2.007190/2025</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>8130336012596028</t>
-        </is>
-      </c>
+          <t>DIPA-006.01.2.007190/2022</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>2026</v>
       </c>
@@ -670,19 +643,19 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45911</v>
+        <v>44964</v>
       </c>
       <c r="C4" t="n">
-        <v>10550346000</v>
+        <v>5675548000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -690,37 +663,19 @@
           <t>006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>C01</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SATKER_REVISI</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DIPA-006.01.2.007208/2025</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>45624</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0906129370504048</t>
-        </is>
-      </c>
+          <t>DIPA-006.01.2.007208/2022</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>2026</v>
       </c>
@@ -742,10 +697,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45965</v>
+        <v>44917</v>
       </c>
       <c r="C5" t="n">
-        <v>7144559000</v>
+        <v>5807275000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -754,7 +709,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -762,37 +717,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A06</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.098963/2025</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>4141859527094401</t>
-        </is>
-      </c>
+          <t>DIPA-005.01.2.098963/2022</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>2026</v>
       </c>
@@ -814,10 +751,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45937</v>
+        <v>44847</v>
       </c>
       <c r="C6" t="n">
-        <v>509462000</v>
+        <v>641515000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -826,7 +763,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -834,37 +771,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DIPA-005.03.2.099228/2025</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1108517640782076</t>
-        </is>
-      </c>
+          <t>DIPA-005.03.2.099228/2022</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>2026</v>
       </c>
@@ -886,10 +805,10 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45907</v>
+        <v>44845</v>
       </c>
       <c r="C7" t="n">
-        <v>141148000</v>
+        <v>573877000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -898,7 +817,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -906,37 +825,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DIPA-025.05.2.111071/2025</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1551402096096442</t>
-        </is>
-      </c>
+          <t>DIPA-025.05.2.111071/2022</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>2026</v>
       </c>
@@ -958,10 +859,10 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45968</v>
+        <v>44907</v>
       </c>
       <c r="C8" t="n">
-        <v>1368204000</v>
+        <v>1479100000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -970,7 +871,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -978,37 +879,19 @@
           <t>066</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>A06</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DIPA-066.01.2.111079/2025</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>4379470773030486</t>
-        </is>
-      </c>
+          <t>DIPA-066.01.2.111079/2022</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>2026</v>
       </c>
@@ -1026,72 +909,54 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>344894</t>
+          <t>111804</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45911</v>
+        <v>44916</v>
       </c>
       <c r="C9" t="n">
-        <v>28575553000</v>
+        <v>4284198000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>012</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>A09</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DIPA-012.22.2.344894/2025</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>45624</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2026091390533470</t>
-        </is>
-      </c>
+          <t>DIPA-076.01.2.111804/2022</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>2026</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>76</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>KEMENHAN</t>
+          <t>KPU</t>
         </is>
       </c>
     </row>
@@ -1102,19 +967,19 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45972</v>
+        <v>44893</v>
       </c>
       <c r="C10" t="n">
-        <v>4632337000</v>
+        <v>11291411000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1122,37 +987,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>A15</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.401944/2025</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>45625</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0740020595088200</t>
-        </is>
-      </c>
+          <t>DIPA-005.01.2.401944/2022</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>2026</v>
       </c>
@@ -1174,19 +1021,19 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>46002</v>
+        <v>44901</v>
       </c>
       <c r="C11" t="n">
-        <v>3970295000</v>
+        <v>9152950000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1194,37 +1041,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.401945/2025</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>45626</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>8051298376890799</t>
-        </is>
-      </c>
+          <t>DIPA-005.01.2.401945/2022</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>2026</v>
       </c>
@@ -1246,10 +1075,10 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45901</v>
+        <v>44909</v>
       </c>
       <c r="C12" t="n">
-        <v>4966767000</v>
+        <v>4439794000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1087,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1266,37 +1095,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.402267/2025</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>9566403192184176</t>
-        </is>
-      </c>
+          <t>DIPA-005.01.2.402267/2022</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>2026</v>
       </c>
@@ -1318,7 +1129,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45968</v>
+        <v>44854</v>
       </c>
       <c r="C13" t="n">
         <v>120000000</v>
@@ -1330,7 +1141,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1338,37 +1149,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>A07</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DIPA-005.04.2.402268/2025</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>6548604286552645</t>
-        </is>
-      </c>
+          <t>DIPA-005.04.2.402268/2022</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>2026</v>
       </c>
@@ -1390,10 +1183,10 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45968</v>
+        <v>44848</v>
       </c>
       <c r="C14" t="n">
-        <v>145625000</v>
+        <v>244443000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1402,7 +1195,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1410,37 +1203,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>A06</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DIPA-005.04.2.403409/2025</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2175514078525883</t>
-        </is>
-      </c>
+          <t>DIPA-005.04.2.403409/2022</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>2026</v>
       </c>
@@ -1462,10 +1237,10 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45968</v>
+        <v>44848</v>
       </c>
       <c r="C15" t="n">
-        <v>77600000</v>
+        <v>92600000</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1474,7 +1249,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1482,37 +1257,19 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DIPA-005.04.2.403410/2025</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>8417525042364259</t>
-        </is>
-      </c>
+          <t>DIPA-005.04.2.403410/2022</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>2026</v>
       </c>
@@ -1530,93 +1287,69 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>406426</t>
+          <t>403603</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44938</v>
+        <v>44791</v>
       </c>
       <c r="C16" t="n">
-        <v>6919430000</v>
+        <v>1050350300000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>013</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>E01</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>RKAKL_AWAL</t>
-        </is>
-      </c>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.406426/2024</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>7000763023322350</t>
-        </is>
-      </c>
+          <t>DIPA-999.05.6.403603/2022</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>2026</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>IMIGRASIPAS</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>406472</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>406426</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44888</v>
+      </c>
       <c r="C17" t="n">
-        <v>7827726000</v>
+        <v>6251869000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1624,37 +1357,19 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>E01</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>RKAKL_AWAL</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.406472/2024</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0166219817679216</t>
-        </is>
-      </c>
+          <t>DIPA-013.05.2.406426/2022</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>2026</v>
       </c>
@@ -1672,23 +1387,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>406488</t>
+          <t>406472</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44938</v>
+        <v>44914</v>
       </c>
       <c r="C18" t="n">
-        <v>9095524000</v>
+        <v>6901536000</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1696,37 +1411,19 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>E01</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>RKAKL_AWAL</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.406488/2024</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1076704308654247</t>
-        </is>
-      </c>
+          <t>DIPA-013.05.2.406472/2022</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>2026</v>
       </c>
@@ -1744,14 +1441,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>410574</t>
+          <t>406488</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45940</v>
+        <v>44921</v>
       </c>
       <c r="C19" t="n">
-        <v>8801554000</v>
+        <v>8599154000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,70 +1457,52 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>A09</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DIPA-015.04.2.410574/2025</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>6452696303922900</t>
-        </is>
-      </c>
+          <t>DIPA-013.05.2.406488/2022</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>2026</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>137</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>KEMENKEU</t>
+          <t>IMIGRASIPAS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>418456</t>
+          <t>410574</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45818</v>
+        <v>44862</v>
       </c>
       <c r="C20" t="n">
-        <v>51652554000</v>
+        <v>11369017000</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1832,70 +1511,52 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DIPA-025.01.2.418456/2025</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>8009448695308250</t>
-        </is>
-      </c>
+          <t>DIPA-015.04.2.410574/2022</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>2026</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>KEMENKEU</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>418457</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>46002</v>
+        <v>44887</v>
       </c>
       <c r="C21" t="n">
-        <v>1531469000</v>
+        <v>2242163000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1904,7 +1565,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1912,37 +1573,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B07</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DIPA-025.03.2.418457/2025</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>SPAN</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>9006422429035875</t>
-        </is>
-      </c>
+          <t>DIPA-025.01.2.418456/2022</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>2026</v>
       </c>
@@ -1960,23 +1603,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>418457</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45964</v>
+        <v>44917</v>
       </c>
       <c r="C22" t="n">
-        <v>1014188000</v>
+        <v>8315853000</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1984,37 +1627,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.418458/2025</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>9876762640090339</t>
-        </is>
-      </c>
+          <t>DIPA-025.03.2.418457/2022</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>2026</v>
       </c>
@@ -2032,23 +1657,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>418459</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45968</v>
+        <v>44929</v>
       </c>
       <c r="C23" t="n">
-        <v>211890000</v>
+        <v>26548578000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2056,37 +1681,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>B02</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DIPA-025.06.2.418459/2025</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>SPAN</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1613758090567508</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.418458/2022</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>2026</v>
       </c>
@@ -2104,14 +1711,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>418461</t>
+          <t>418459</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45334</v>
+        <v>44908</v>
       </c>
       <c r="C24" t="n">
-        <v>241922000</v>
+        <v>804049000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2120,7 +1727,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2128,37 +1735,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DIPA-025.09.2.418461/2025</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>0297077055967703</t>
-        </is>
-      </c>
+          <t>DIPA-025.06.2.418459/2022</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>2026</v>
       </c>
@@ -2176,14 +1765,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>418460</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45968</v>
+        <v>44879</v>
       </c>
       <c r="C25" t="n">
-        <v>598642000</v>
+        <v>264531000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2192,7 +1781,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2200,37 +1789,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.418462/2025</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>3186106692162105</t>
-        </is>
-      </c>
+          <t>DIPA-025.07.2.418460/2022</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>2026</v>
       </c>
@@ -2248,14 +1819,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>418461</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45334</v>
+        <v>44896</v>
       </c>
       <c r="C26" t="n">
-        <v>627700000</v>
+        <v>860316000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2264,7 +1835,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2272,37 +1843,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.418471/2025</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>8381207792048176</t>
-        </is>
-      </c>
+          <t>DIPA-025.09.2.418461/2022</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>2026</v>
       </c>
@@ -2320,95 +1873,77 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>419006</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45937</v>
+        <v>44929</v>
       </c>
       <c r="C27" t="n">
-        <v>3697455000</v>
+        <v>2056746000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DIPA-115.01.2.419006/2025</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>7919907807416017</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.418462/2022</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>2026</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>BAWASLU</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>418471</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45967</v>
+        <v>44944</v>
       </c>
       <c r="C28" t="n">
-        <v>1567808000</v>
+        <v>2994109000</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2416,37 +1951,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.424245/2025</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>9225162150910708</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.418471/2022</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>2026</v>
       </c>
@@ -2464,95 +1981,77 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>424967</t>
+          <t>419006</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45940</v>
+        <v>44966</v>
       </c>
       <c r="C29" t="n">
-        <v>1403368000</v>
+        <v>2821319000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>B02</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.424967/2025</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>SPAN</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>3283404017772760</t>
-        </is>
-      </c>
+          <t>DIPA-115.01.2.419006/2022</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>2026</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>115</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>BAWASLU</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45788</v>
+        <v>44944</v>
       </c>
       <c r="C30" t="n">
-        <v>958882000</v>
+        <v>7652026000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2560,37 +2059,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>B05</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.426050/2025</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>SPAN</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1502610519880314</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.424245/2022</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
         <v>2026</v>
       </c>
@@ -2608,23 +2089,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>424967</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45334</v>
+        <v>44929</v>
       </c>
       <c r="C31" t="n">
-        <v>2145712000</v>
+        <v>5509461000</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2632,37 +2113,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.426066/2025</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>9110663200945540</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.424967/2022</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>2026</v>
       </c>
@@ -2680,14 +2143,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45840</v>
+        <v>44945</v>
       </c>
       <c r="C32" t="n">
-        <v>6903255000</v>
+        <v>6686953000</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2696,142 +2159,106 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DIPA-054.01.2.428258/2025</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>9000083735922217</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.426050/2022</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>2026</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>426066</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>46001</v>
+        <v>44944</v>
       </c>
       <c r="C33" t="n">
-        <v>8205060000</v>
+        <v>6652982000</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>056</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>X00</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>BACKUP_HISTORY</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DIPA-056.01.2.431142/2025</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>45626</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>0047764610194073</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.426066/2022</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>2026</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>ATR/BPN</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45818</v>
+        <v>44907</v>
       </c>
       <c r="C34" t="n">
-        <v>36522882000</v>
+        <v>9980407000</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,142 +2267,106 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DIPA-025.01.2.440502/2025</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>4588291552644880</t>
-        </is>
-      </c>
+          <t>DIPA-054.01.2.428258/2022</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>2026</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>BPS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>46001</v>
+        <v>44921</v>
       </c>
       <c r="C35" t="n">
-        <v>1915837000</v>
+        <v>7323856000</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
         <v>10</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DIPA-025.03.2.440503/2025</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>9641833372475644</t>
-        </is>
-      </c>
+          <t>DIPA-056.01.2.431142/2022</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
         <v>2026</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>ATR/BPN</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>440504</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45334</v>
+        <v>44945</v>
       </c>
       <c r="C36" t="n">
-        <v>1152564000</v>
+        <v>2272696000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2375,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2992,37 +2383,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.440504/2025</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>7037514065096559</t>
-        </is>
-      </c>
+          <t>DIPA-025.01.2.440502/2022</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
         <v>2026</v>
       </c>
@@ -3040,23 +2413,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>440505</t>
+          <t>440503</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45334</v>
+        <v>44917</v>
       </c>
       <c r="C37" t="n">
-        <v>85456000</v>
+        <v>7589370000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3064,37 +2437,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DIPA-025.06.2.440505/2025</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>9146954304541669</t>
-        </is>
-      </c>
+          <t>DIPA-025.03.2.440503/2022</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>2026</v>
       </c>
@@ -3112,23 +2467,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>440506</t>
+          <t>440504</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45334</v>
+        <v>44929</v>
       </c>
       <c r="C38" t="n">
-        <v>167820000</v>
+        <v>16403195000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3136,37 +2491,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DIPA-025.07.2.440506/2025</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>9446808307903484</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.440504/2022</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
         <v>2026</v>
       </c>
@@ -3184,14 +2521,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>440507</t>
+          <t>440505</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45334</v>
+        <v>44908</v>
       </c>
       <c r="C39" t="n">
-        <v>155798000</v>
+        <v>136010000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3200,7 +2537,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3208,37 +2545,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DIPA-025.09.2.440507/2025</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>4615706864515737</t>
-        </is>
-      </c>
+          <t>DIPA-025.06.2.440505/2022</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>2026</v>
       </c>
@@ -3256,76 +2575,68 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>500163</t>
+          <t>440506</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45785</v>
+        <v>44896</v>
       </c>
       <c r="C40" t="n">
-        <v>2894038002000</v>
+        <v>167997000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>A03</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DIPA-999.05.6.500163/2025</t>
+          <t>DIPA-025.07.2.440506/2022</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0963217052025045</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>2026</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>KEMENAG</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>440507</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45876</v>
+        <v>44896</v>
       </c>
       <c r="C41" t="n">
-        <v>1356127000</v>
+        <v>423613000</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3334,70 +2645,52 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>A06</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>6</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DIPA-015.08.2.527975/2025</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>7500682800895408</t>
-        </is>
-      </c>
+          <t>DIPA-025.09.2.440507/2022</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
         <v>2026</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>KEMENKEU</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45334</v>
+        <v>44915</v>
       </c>
       <c r="C42" t="n">
-        <v>486760000</v>
+        <v>1797436000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3406,70 +2699,52 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.553099/2025</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2604471804004228</t>
-        </is>
-      </c>
+          <t>DIPA-015.08.2.527975/2022</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>2026</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>KEMENKEU</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>553792</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45334</v>
+        <v>44944</v>
       </c>
       <c r="C43" t="n">
-        <v>967970000</v>
+        <v>2140783000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3478,7 +2753,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3486,37 +2761,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>C05</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>SATKER_REVISI</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.553792/2025</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>6446944265061061</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.553099/2022</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>2026</v>
       </c>
@@ -3534,23 +2791,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>574370</t>
+          <t>553792</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45334</v>
+        <v>44945</v>
       </c>
       <c r="C44" t="n">
-        <v>797878000</v>
+        <v>3657860000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3558,37 +2815,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.574370/2025</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>8442178001038855</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.553792/2022</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
         <v>2026</v>
       </c>
@@ -3606,14 +2845,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>597480</t>
+          <t>574370</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45334</v>
+        <v>44929</v>
       </c>
       <c r="C45" t="n">
-        <v>462012000</v>
+        <v>2105071000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3622,7 +2861,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3630,37 +2869,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.597480/2025</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>9409050920760043</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.574370/2022</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>2026</v>
       </c>
@@ -3678,14 +2899,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>597480</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45910</v>
+        <v>44929</v>
       </c>
       <c r="C46" t="n">
-        <v>437830000</v>
+        <v>1529071000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3694,7 +2915,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3702,37 +2923,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>C04</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>SATKER_REVISI</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.597558/2025</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>9570546201451234</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.597480/2022</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>2026</v>
       </c>
@@ -3750,64 +2953,56 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>600092</t>
+          <t>597558</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45901</v>
+        <v>44895</v>
       </c>
       <c r="C47" t="n">
-        <v>711127800000</v>
+        <v>1733771000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DIPA-999.05.6.600092/2025</t>
+          <t>DIPA-025.04.2.597558/2022</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>5670944026470139</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>2026</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>KEMENAG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3816,10 +3011,10 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44969</v>
+        <v>44914</v>
       </c>
       <c r="C48" t="n">
-        <v>2631518000</v>
+        <v>2466358000</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3828,7 +3023,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3836,37 +3031,19 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>E01</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>RKAKL_AWAL</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.632013/2024</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0103359033057990</t>
-        </is>
-      </c>
+          <t>DIPA-013.05.2.632013/2022</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>2026</v>
       </c>
@@ -3888,10 +3065,10 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45998</v>
+        <v>44930</v>
       </c>
       <c r="C49" t="n">
-        <v>70216158000</v>
+        <v>67957467000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3077,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3908,37 +3085,19 @@
           <t>060</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>A07</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DIPA-060.01.2.641681/2025</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0054424045205354</t>
-        </is>
-      </c>
+          <t>DIPA-060.01.2.641681/2022</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
         <v>2026</v>
       </c>
@@ -3960,10 +3119,10 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44969</v>
+        <v>44910</v>
       </c>
       <c r="C50" t="n">
-        <v>1642553000</v>
+        <v>1607532000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3972,7 +3131,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3980,37 +3139,19 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>E01</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>RKAKL_AWAL</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.653271/2024</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6608054399219174</t>
-        </is>
-      </c>
+          <t>DIPA-013.05.2.653271/2022</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>2026</v>
       </c>
@@ -4028,86 +3169,68 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>656553</t>
+          <t>653530</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>46002</v>
+        <v>44896</v>
       </c>
       <c r="C51" t="n">
-        <v>6636346000</v>
+        <v>9963006000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>C01</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>SATKER_REVISI</t>
-        </is>
-      </c>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DIPA-076.01.2.656553/2025</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0255040243774200</t>
-        </is>
-      </c>
+          <t>DIPA-024.11.2.653530/2022</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>2026</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>24</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>KPU</t>
+          <t>KEMENKES</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45967</v>
+        <v>44916</v>
       </c>
       <c r="C52" t="n">
-        <v>6558957000</v>
+        <v>3729901000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +3239,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4124,37 +3247,19 @@
           <t>076</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>A09</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DIPA-076.01.2.656560/2025</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>3622615628795020</t>
-        </is>
-      </c>
+          <t>DIPA-076.01.2.656553/2022</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
         <v>2026</v>
       </c>
@@ -4172,14 +3277,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45849</v>
+        <v>44916</v>
       </c>
       <c r="C53" t="n">
-        <v>6614760000</v>
+        <v>3588227000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4188,7 +3293,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4196,37 +3301,19 @@
           <t>076</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>B17</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DIPA-076.01.2.656574/2025</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>SPAN</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>6099796333846823</t>
-        </is>
-      </c>
+          <t>DIPA-076.01.2.656560/2022</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>2026</v>
       </c>
@@ -4244,86 +3331,68 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45907</v>
+        <v>44921</v>
       </c>
       <c r="C54" t="n">
-        <v>567098000</v>
+        <v>4440242000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.661192/2025</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>4793032018307169</t>
-        </is>
-      </c>
+          <t>DIPA-076.01.2.656574/2022</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
         <v>2026</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>76</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>KPU</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>46001</v>
+        <v>44929</v>
       </c>
       <c r="C55" t="n">
-        <v>1375668000</v>
+        <v>1539822000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4332,7 +3401,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4340,37 +3409,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>A03</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.662127/2025</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>45624</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>8020029835293232</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.661192/2022</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
         <v>2026</v>
       </c>
@@ -4388,86 +3439,68 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45966</v>
+        <v>44929</v>
       </c>
       <c r="C56" t="n">
-        <v>74069711000</v>
+        <v>2618361000</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>060</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>A03</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DIPA-060.01.2.665292/2025</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>5540030176770327</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.662127/2022</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>2026</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>POLRI</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>665307</t>
+          <t>665292</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>46002</v>
+        <v>44930</v>
       </c>
       <c r="C57" t="n">
-        <v>51221827000</v>
+        <v>60905843000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4476,7 +3509,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4484,37 +3517,19 @@
           <t>060</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DIPA-060.01.2.665307/2025</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>45626</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>6700076130847600</t>
-        </is>
-      </c>
+          <t>DIPA-060.01.2.665292/2022</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
         <v>2026</v>
       </c>
@@ -4532,14 +3547,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>666501</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45941</v>
+        <v>44930</v>
       </c>
       <c r="C58" t="n">
-        <v>57389409000</v>
+        <v>49402997000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,70 +3563,52 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>A07</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DIPA-025.01.2.666501/2025</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>45625</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>UNIT</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>3042860222060990</t>
-        </is>
-      </c>
+          <t>DIPA-060.01.2.665307/2022</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
         <v>2026</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>POLRI</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>666502</t>
+          <t>666501</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45968</v>
+        <v>44918</v>
       </c>
       <c r="C59" t="n">
-        <v>2711331000</v>
+        <v>2091563000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4620,7 +3617,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4628,37 +3625,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DIPA-025.03.2.666502/2025</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>1120108401943142</t>
-        </is>
-      </c>
+          <t>DIPA-025.01.2.666501/2022</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>2026</v>
       </c>
@@ -4676,23 +3655,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>666502</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45940</v>
+        <v>44917</v>
       </c>
       <c r="C60" t="n">
-        <v>1642979000</v>
+        <v>9053868000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4700,37 +3679,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>B03</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.666503/2025</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>SPAN</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>9803708004185702</t>
-        </is>
-      </c>
+          <t>DIPA-025.03.2.666502/2022</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
         <v>2026</v>
       </c>
@@ -4748,23 +3709,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45907</v>
+        <v>44943</v>
       </c>
       <c r="C61" t="n">
-        <v>305413000</v>
+        <v>33648425000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4772,37 +3733,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DIPA-025.06.2.666504/2025</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>9500515308012559</t>
-        </is>
-      </c>
+          <t>DIPA-025.04.2.666503/2022</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
         <v>2026</v>
       </c>
@@ -4820,14 +3763,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45907</v>
+        <v>44908</v>
       </c>
       <c r="C62" t="n">
-        <v>553160000</v>
+        <v>2515614000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4836,7 +3779,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4844,37 +3787,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
         <v>5</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DIPA-025.07.2.666505/2025</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>8364180950690711</t>
-        </is>
-      </c>
+          <t>DIPA-025.06.2.666504/2022</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
         <v>2026</v>
       </c>
@@ -4892,14 +3817,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>666507</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45907</v>
+        <v>44921</v>
       </c>
       <c r="C63" t="n">
-        <v>245582000</v>
+        <v>1164572000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4908,7 +3833,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4916,37 +3841,19 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>DIPA-025.09.2.666507/2025</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>KANWILKL</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>5085329956520132</t>
-        </is>
-      </c>
+          <t>DIPA-025.07.2.666505/2022</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
         <v>2026</v>
       </c>
@@ -4964,302 +3871,230 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>666506</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45779</v>
+        <v>44872</v>
       </c>
       <c r="C64" t="n">
-        <v>5899128000</v>
+        <v>289284000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DIPA-054.01.2.667215/2025</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>0363053065038411</t>
-        </is>
-      </c>
+          <t>DIPA-025.08.2.666506/2022</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
         <v>2026</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>666507</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45840</v>
+        <v>44921</v>
       </c>
       <c r="C65" t="n">
-        <v>7942246000</v>
+        <v>557007000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>DIPA-054.01.2.668529/2025</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>0443105092573576</t>
-        </is>
-      </c>
+          <t>DIPA-025.09.2.666507/2022</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>2026</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45940</v>
+        <v>44943</v>
       </c>
       <c r="C66" t="n">
-        <v>7084301000</v>
+        <v>10276489000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>056</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>C09</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>SATKER_REVISI</t>
-        </is>
-      </c>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>DIPA-056.01.2.669055/2025</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2629402130849067</t>
-        </is>
-      </c>
+          <t>DIPA-054.01.2.667215/2022</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
         <v>2026</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>ATR/BPN</t>
+          <t>BPS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>670561</t>
+          <t>668529</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>46001</v>
+        <v>44909</v>
       </c>
       <c r="C67" t="n">
-        <v>7127899000</v>
+        <v>15076544000</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>056</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>A08</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DIPA-056.01.2.670561/2025</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>45626</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>5521900675902563</t>
-        </is>
-      </c>
+          <t>DIPA-054.01.2.668529/2022</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>2026</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>ATR/BPN</t>
+          <t>BPS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>685001</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45879</v>
+        <v>44904</v>
       </c>
       <c r="C68" t="n">
-        <v>40006172000</v>
+        <v>7722334000</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5268,70 +4103,52 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>012</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>A08</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DIPA-012.22.2.685001/2025</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>3079310185341100</t>
-        </is>
-      </c>
+          <t>DIPA-056.01.2.669055/2022</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>2026</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>KEMENHAN</t>
+          <t>ATR/BPN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>670561</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45937</v>
+        <v>44944</v>
       </c>
       <c r="C69" t="n">
-        <v>4002377000</v>
+        <v>5199089000</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5340,70 +4157,52 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>DIPA-115.01.2.686503/2025</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2887685482514711</t>
-        </is>
-      </c>
+          <t>DIPA-056.01.2.670561/2022</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
         <v>2026</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>BAWASLU</t>
+          <t>ATR/BPN</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45937</v>
+        <v>44945</v>
       </c>
       <c r="C70" t="n">
-        <v>12792429000</v>
+        <v>52431449000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5412,554 +4211,94 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>024</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>DIPA-024.03.2.690801/2025</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>6369793739149399</t>
-        </is>
-      </c>
+          <t>DIPA-012.22.2.685001/2022</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
         <v>2026</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>KEMENKES</t>
+          <t>KEMENHAN</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>691653</t>
+          <t>686503</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45723</v>
+        <v>44923</v>
       </c>
       <c r="C71" t="n">
-        <v>3099494000</v>
+        <v>4739446000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DIPA-152.03.4.691653/2025</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>0250002208968130</t>
-        </is>
-      </c>
+          <t>DIPA-115.01.2.686503/2022</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
         <v>2026</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>115</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>TRANSMIGRASI</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>692334</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6919430000</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Satker Sedang</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1604</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>A08</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>8</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>DIPA-137.04.2.692334/2025</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>4029974205019089</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>2026</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>IMIGRASIPAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>692339</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7827726000</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Satker Besar</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1634</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>DIPA-137.04.2.692339/2025</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2013002825209382</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>2026</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>IMIGRASIPAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>692340</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9095524000</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Satker Besar</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1666</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>DIPA-137.04.2.692340/2025</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>0242246066350418</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>2026</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>IMIGRASIPAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>692625</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2653374000</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Satker Kecil</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>A07</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>DIPA-137.04.2.692625/2025</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="n">
-        <v>45626</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>3051570346322245</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>2026</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>IMIGRASIPAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>692725</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1642553000</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Satker Kecil</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>DIPA-137.04.2.692725/2025</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>SATKER</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>1887065446423135</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>2026</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>IMIGRASIPAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>700283</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="C77" t="n">
-        <v>618589591000</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Satker Besar</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1714</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>USULAN_DIPA_REVISI</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>DIPA-999.05.6.700283/2025</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>45666</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>DJA</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>0162007535582165</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>2026</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+          <t>BAWASLU</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA_DIPA/DIPA_2026.xlsx
+++ b/DATA_DIPA/DIPA_2026.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +31,22 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,8 +69,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,10 +535,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44945</v>
+        <v>45911</v>
       </c>
       <c r="C2" t="n">
-        <v>7646373000</v>
+        <v>12375659000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -538,7 +547,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -546,19 +555,37 @@
           <t>006</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>B08</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DIPA-006.01.2.007130/2022</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>DIPA-006.01.2.007130/2025</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0740301400187081</t>
+        </is>
+      </c>
       <c r="N2" t="n">
         <v>2026</v>
       </c>
@@ -580,19 +607,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44945</v>
+        <v>45968</v>
       </c>
       <c r="C3" t="n">
-        <v>6802773000</v>
+        <v>9842161000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -600,19 +627,37 @@
           <t>006</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DIPA-006.01.2.007190/2022</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>DIPA-006.01.2.007190/2025</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>8130336012596028</t>
+        </is>
+      </c>
       <c r="N3" t="n">
         <v>2026</v>
       </c>
@@ -634,19 +679,19 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44964</v>
+        <v>45911</v>
       </c>
       <c r="C4" t="n">
-        <v>5675548000</v>
+        <v>10550346000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -654,19 +699,37 @@
           <t>006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C01</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SATKER_REVISI</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DIPA-006.01.2.007208/2022</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>DIPA-006.01.2.007208/2025</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0906129370504048</t>
+        </is>
+      </c>
       <c r="N4" t="n">
         <v>2026</v>
       </c>
@@ -688,10 +751,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44917</v>
+        <v>45965</v>
       </c>
       <c r="C5" t="n">
-        <v>5807275000</v>
+        <v>7144559000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -700,7 +763,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -708,19 +771,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.098963/2022</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>DIPA-005.01.2.098963/2025</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4141859527094401</t>
+        </is>
+      </c>
       <c r="N5" t="n">
         <v>2026</v>
       </c>
@@ -742,10 +823,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44847</v>
+        <v>45937</v>
       </c>
       <c r="C6" t="n">
-        <v>641515000</v>
+        <v>509462000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -754,7 +835,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -762,19 +843,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DIPA-005.03.2.099228/2022</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>DIPA-005.03.2.099228/2025</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1108517640782076</t>
+        </is>
+      </c>
       <c r="N6" t="n">
         <v>2026</v>
       </c>
@@ -796,10 +895,10 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44845</v>
+        <v>45907</v>
       </c>
       <c r="C7" t="n">
-        <v>573877000</v>
+        <v>141148000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -808,7 +907,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -816,19 +915,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DIPA-025.05.2.111071/2022</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>DIPA-025.05.2.111071/2025</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1551402096096442</t>
+        </is>
+      </c>
       <c r="N7" t="n">
         <v>2026</v>
       </c>
@@ -850,10 +967,10 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44907</v>
+        <v>45968</v>
       </c>
       <c r="C8" t="n">
-        <v>1479100000</v>
+        <v>1368204000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -862,7 +979,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -870,19 +987,37 @@
           <t>066</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DIPA-066.01.2.111079/2022</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>DIPA-066.01.2.111079/2025</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4379470773030486</t>
+        </is>
+      </c>
       <c r="N8" t="n">
         <v>2026</v>
       </c>
@@ -900,54 +1035,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>111804</t>
+          <t>344894</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44916</v>
+        <v>45911</v>
       </c>
       <c r="C9" t="n">
-        <v>4284198000</v>
+        <v>28575553000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A09</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DIPA-076.01.2.111804/2022</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>DIPA-012.22.2.344894/2025</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2026091390533470</t>
+        </is>
+      </c>
       <c r="N9" t="n">
         <v>2026</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>KPU</t>
+          <t>KEMENHAN</t>
         </is>
       </c>
     </row>
@@ -958,19 +1111,19 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44893</v>
+        <v>45972</v>
       </c>
       <c r="C10" t="n">
-        <v>11291411000</v>
+        <v>4632337000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>215</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -978,19 +1131,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.401944/2022</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>DIPA-005.01.2.401944/2025</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0740020595088200</t>
+        </is>
+      </c>
       <c r="N10" t="n">
         <v>2026</v>
       </c>
@@ -1012,19 +1183,19 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44901</v>
+        <v>46002</v>
       </c>
       <c r="C11" t="n">
-        <v>9152950000</v>
+        <v>3970295000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>252</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1032,19 +1203,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.401945/2022</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>DIPA-005.01.2.401945/2025</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8051298376890799</t>
+        </is>
+      </c>
       <c r="N11" t="n">
         <v>2026</v>
       </c>
@@ -1066,10 +1255,10 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44909</v>
+        <v>45901</v>
       </c>
       <c r="C12" t="n">
-        <v>4439794000</v>
+        <v>4966767000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1078,7 +1267,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>311</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1086,19 +1275,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DIPA-005.01.2.402267/2022</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>DIPA-005.01.2.402267/2025</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>9566403192184176</t>
+        </is>
+      </c>
       <c r="N12" t="n">
         <v>2026</v>
       </c>
@@ -1120,7 +1327,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44854</v>
+        <v>45968</v>
       </c>
       <c r="C13" t="n">
         <v>120000000</v>
@@ -1132,7 +1339,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>322</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1140,19 +1347,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A07</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DIPA-005.04.2.402268/2022</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>DIPA-005.04.2.402268/2025</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>6548604286552645</t>
+        </is>
+      </c>
       <c r="N13" t="n">
         <v>2026</v>
       </c>
@@ -1174,10 +1399,10 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44848</v>
+        <v>45968</v>
       </c>
       <c r="C14" t="n">
-        <v>244443000</v>
+        <v>145625000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1186,7 +1411,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>343</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1194,19 +1419,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DIPA-005.04.2.403409/2022</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>DIPA-005.04.2.403409/2025</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2175514078525883</t>
+        </is>
+      </c>
       <c r="N14" t="n">
         <v>2026</v>
       </c>
@@ -1228,10 +1471,10 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44848</v>
+        <v>45968</v>
       </c>
       <c r="C15" t="n">
-        <v>92600000</v>
+        <v>77600000</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1240,7 +1483,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>364</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1248,19 +1491,37 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DIPA-005.04.2.403410/2022</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>DIPA-005.04.2.403410/2025</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>8417525042364259</t>
+        </is>
+      </c>
       <c r="N15" t="n">
         <v>2026</v>
       </c>
@@ -1278,69 +1539,93 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>403603</t>
+          <t>406426</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44791</v>
+        <v>44938</v>
       </c>
       <c r="C16" t="n">
-        <v>1050350300000</v>
+        <v>6919430000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>380</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>RKAKL_AWAL</t>
+        </is>
+      </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DIPA-999.05.6.403603/2022</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+          <t>DIPA-013.05.2.406426/2024</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7000763023322350</t>
+        </is>
+      </c>
       <c r="N16" t="n">
         <v>2026</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>IMIGRASIPAS</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>406426</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>44888</v>
-      </c>
+          <t>406472</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>6251869000</v>
+        <v>7827726000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>387</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1348,19 +1633,37 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>RKAKL_AWAL</t>
+        </is>
+      </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.406426/2022</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>DIPA-013.05.2.406472/2024</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0166219817679216</t>
+        </is>
+      </c>
       <c r="N17" t="n">
         <v>2026</v>
       </c>
@@ -1378,23 +1681,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>406472</t>
+          <t>406488</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44914</v>
+        <v>44938</v>
       </c>
       <c r="C18" t="n">
-        <v>6901536000</v>
+        <v>9095524000</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>394</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1402,19 +1705,37 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>RKAKL_AWAL</t>
+        </is>
+      </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.406472/2022</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>DIPA-013.05.2.406488/2024</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1076704308654247</t>
+        </is>
+      </c>
       <c r="N18" t="n">
         <v>2026</v>
       </c>
@@ -1432,14 +1753,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>406488</t>
+          <t>410574</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44921</v>
+        <v>45940</v>
       </c>
       <c r="C19" t="n">
-        <v>8599154000</v>
+        <v>8801554000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1448,52 +1769,70 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>404</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>013</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>A09</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.406488/2022</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+          <t>DIPA-015.04.2.410574/2025</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>6452696303922900</t>
+        </is>
+      </c>
       <c r="N19" t="n">
         <v>2026</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>IMIGRASIPAS</t>
+          <t>KEMENKEU</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>410574</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44862</v>
+        <v>45818</v>
       </c>
       <c r="C20" t="n">
-        <v>11369017000</v>
+        <v>51652554000</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1502,52 +1841,70 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>443</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DIPA-015.04.2.410574/2022</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+          <t>DIPA-025.01.2.418456/2025</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>8009448695308250</t>
+        </is>
+      </c>
       <c r="N20" t="n">
         <v>2026</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>KEMENKEU</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>418456</t>
+          <t>418457</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44887</v>
+        <v>46002</v>
       </c>
       <c r="C21" t="n">
-        <v>2242163000</v>
+        <v>1531469000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1556,7 +1913,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>460</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1564,19 +1921,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>B07</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DIPA-025.01.2.418456/2022</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>DIPA-025.03.2.418457/2025</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>9006422429035875</t>
+        </is>
+      </c>
       <c r="N21" t="n">
         <v>2026</v>
       </c>
@@ -1594,23 +1969,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>418457</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44917</v>
+        <v>45964</v>
       </c>
       <c r="C22" t="n">
-        <v>8315853000</v>
+        <v>1014188000</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>484</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1618,19 +1993,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DIPA-025.03.2.418457/2022</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>DIPA-025.04.2.418458/2025</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>9876762640090339</t>
+        </is>
+      </c>
       <c r="N22" t="n">
         <v>2026</v>
       </c>
@@ -1648,23 +2041,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>418459</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44929</v>
+        <v>45968</v>
       </c>
       <c r="C23" t="n">
-        <v>26548578000</v>
+        <v>211890000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>495</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1672,19 +2065,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>B02</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.418458/2022</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+          <t>DIPA-025.06.2.418459/2025</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1613758090567508</t>
+        </is>
+      </c>
       <c r="N23" t="n">
         <v>2026</v>
       </c>
@@ -1702,14 +2113,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>418459</t>
+          <t>418461</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44908</v>
+        <v>45334</v>
       </c>
       <c r="C24" t="n">
-        <v>804049000</v>
+        <v>241922000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1718,7 +2129,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>511</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1726,19 +2137,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DIPA-025.06.2.418459/2022</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+          <t>DIPA-025.09.2.418461/2025</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0297077055967703</t>
+        </is>
+      </c>
       <c r="N24" t="n">
         <v>2026</v>
       </c>
@@ -1756,14 +2185,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>418460</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44879</v>
+        <v>45968</v>
       </c>
       <c r="C25" t="n">
-        <v>264531000</v>
+        <v>598642000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1772,7 +2201,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>526</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1780,19 +2209,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DIPA-025.07.2.418460/2022</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>DIPA-025.04.2.418462/2025</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>3186106692162105</t>
+        </is>
+      </c>
       <c r="N25" t="n">
         <v>2026</v>
       </c>
@@ -1810,14 +2257,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>418461</t>
+          <t>418471</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44896</v>
+        <v>45334</v>
       </c>
       <c r="C26" t="n">
-        <v>860316000</v>
+        <v>627700000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1826,7 +2273,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>539</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1834,19 +2281,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DIPA-025.09.2.418461/2022</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>DIPA-025.04.2.418471/2025</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>8381207792048176</t>
+        </is>
+      </c>
       <c r="N26" t="n">
         <v>2026</v>
       </c>
@@ -1864,77 +2329,95 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>419006</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44929</v>
+        <v>45937</v>
       </c>
       <c r="C27" t="n">
-        <v>2056746000</v>
+        <v>3697455000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>552</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.418462/2022</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+          <t>DIPA-115.01.2.419006/2025</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>7919907807416017</t>
+        </is>
+      </c>
       <c r="N27" t="n">
         <v>2026</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>115</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>BAWASLU</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44944</v>
+        <v>45967</v>
       </c>
       <c r="C28" t="n">
-        <v>2994109000</v>
+        <v>1567808000</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>575</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1942,19 +2425,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.418471/2022</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>DIPA-025.04.2.424245/2025</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>9225162150910708</t>
+        </is>
+      </c>
       <c r="N28" t="n">
         <v>2026</v>
       </c>
@@ -1972,77 +2473,95 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>419006</t>
+          <t>424967</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44966</v>
+        <v>45940</v>
       </c>
       <c r="C29" t="n">
-        <v>2821319000</v>
+        <v>1403368000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>590</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>B02</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DIPA-115.01.2.419006/2022</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>DIPA-025.04.2.424967/2025</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>3283404017772760</t>
+        </is>
+      </c>
       <c r="N29" t="n">
         <v>2026</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>BAWASLU</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44944</v>
+        <v>45788</v>
       </c>
       <c r="C30" t="n">
-        <v>7652026000</v>
+        <v>958882000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>602</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2050,19 +2569,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>B05</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.424245/2022</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>DIPA-025.04.2.426050/2025</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1502610519880314</t>
+        </is>
+      </c>
       <c r="N30" t="n">
         <v>2026</v>
       </c>
@@ -2080,23 +2617,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>424967</t>
+          <t>426066</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44929</v>
+        <v>45334</v>
       </c>
       <c r="C31" t="n">
-        <v>5509461000</v>
+        <v>2145712000</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>630</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2104,19 +2641,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.424967/2022</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+          <t>DIPA-025.04.2.426066/2025</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>9110663200945540</t>
+        </is>
+      </c>
       <c r="N31" t="n">
         <v>2026</v>
       </c>
@@ -2134,14 +2689,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44945</v>
+        <v>45840</v>
       </c>
       <c r="C32" t="n">
-        <v>6686953000</v>
+        <v>6903255000</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2150,106 +2705,142 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>680</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.426050/2022</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>DIPA-054.01.2.428258/2025</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>9000083735922217</t>
+        </is>
+      </c>
       <c r="N32" t="n">
         <v>2026</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>BPS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44944</v>
+        <v>46001</v>
       </c>
       <c r="C33" t="n">
-        <v>6652982000</v>
+        <v>8205060000</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>700</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>X00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BACKUP_HISTORY</t>
+        </is>
+      </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.426066/2022</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>DIPA-056.01.2.431142/2025</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0047764610194073</t>
+        </is>
+      </c>
       <c r="N33" t="n">
         <v>2026</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>ATR/BPN</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44907</v>
+        <v>45818</v>
       </c>
       <c r="C34" t="n">
-        <v>9980407000</v>
+        <v>36522882000</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2258,106 +2849,142 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>744</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I34" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DIPA-054.01.2.428258/2022</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+          <t>DIPA-025.01.2.440502/2025</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>4588291552644880</t>
+        </is>
+      </c>
       <c r="N34" t="n">
         <v>2026</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>440503</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44921</v>
+        <v>46001</v>
       </c>
       <c r="C35" t="n">
-        <v>7323856000</v>
+        <v>1915837000</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>766</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>056</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I35" t="n">
         <v>10</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DIPA-056.01.2.431142/2022</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>DIPA-025.03.2.440503/2025</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>9641833372475644</t>
+        </is>
+      </c>
       <c r="N35" t="n">
         <v>2026</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>ATR/BPN</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>440504</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44945</v>
+        <v>45334</v>
       </c>
       <c r="C36" t="n">
-        <v>2272696000</v>
+        <v>1152564000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2366,7 +2993,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>807</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2374,19 +3001,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DIPA-025.01.2.440502/2022</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>DIPA-025.04.2.440504/2025</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>7037514065096559</t>
+        </is>
+      </c>
       <c r="N36" t="n">
         <v>2026</v>
       </c>
@@ -2404,23 +3049,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>440505</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44917</v>
+        <v>45334</v>
       </c>
       <c r="C37" t="n">
-        <v>7589370000</v>
+        <v>85456000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>823</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2428,19 +3073,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DIPA-025.03.2.440503/2022</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>DIPA-025.06.2.440505/2025</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>9146954304541669</t>
+        </is>
+      </c>
       <c r="N37" t="n">
         <v>2026</v>
       </c>
@@ -2458,23 +3121,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>440504</t>
+          <t>440506</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44929</v>
+        <v>45334</v>
       </c>
       <c r="C38" t="n">
-        <v>16403195000</v>
+        <v>167820000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>839</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2482,19 +3145,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.440504/2022</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+          <t>DIPA-025.07.2.440506/2025</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>9446808307903484</t>
+        </is>
+      </c>
       <c r="N38" t="n">
         <v>2026</v>
       </c>
@@ -2512,14 +3193,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>440505</t>
+          <t>440507</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44908</v>
+        <v>45334</v>
       </c>
       <c r="C39" t="n">
-        <v>136010000</v>
+        <v>155798000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2528,7 +3209,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>859</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2536,19 +3217,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DIPA-025.06.2.440505/2022</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+          <t>DIPA-025.09.2.440507/2025</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>4615706864515737</t>
+        </is>
+      </c>
       <c r="N39" t="n">
         <v>2026</v>
       </c>
@@ -2566,68 +3265,76 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>440506</t>
+          <t>500163</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44896</v>
+        <v>45785</v>
       </c>
       <c r="C40" t="n">
-        <v>167997000</v>
+        <v>2894038002000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>872</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DIPA-025.07.2.440506/2022</t>
+          <t>DIPA-999.05.6.500163/2025</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0963217052025045</t>
+        </is>
+      </c>
       <c r="N40" t="n">
         <v>2026</v>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>KEMENAG</t>
-        </is>
-      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>440507</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44896</v>
+        <v>45876</v>
       </c>
       <c r="C41" t="n">
-        <v>423613000</v>
+        <v>1356127000</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2636,52 +3343,70 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>888</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I41" t="n">
         <v>6</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DIPA-025.09.2.440507/2022</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>DIPA-015.08.2.527975/2025</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>7500682800895408</t>
+        </is>
+      </c>
       <c r="N41" t="n">
         <v>2026</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>KEMENKEU</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44915</v>
+        <v>45334</v>
       </c>
       <c r="C42" t="n">
-        <v>1797436000</v>
+        <v>486760000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2690,52 +3415,70 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>909</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DIPA-015.08.2.527975/2022</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>DIPA-025.04.2.553099/2025</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2604471804004228</t>
+        </is>
+      </c>
       <c r="N42" t="n">
         <v>2026</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>KEMENKEU</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>553792</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44944</v>
+        <v>45334</v>
       </c>
       <c r="C43" t="n">
-        <v>2140783000</v>
+        <v>967970000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2744,7 +3487,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>918</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2752,19 +3495,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>C05</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SATKER_REVISI</t>
+        </is>
+      </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.553099/2022</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+          <t>DIPA-025.04.2.553792/2025</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>6446944265061061</t>
+        </is>
+      </c>
       <c r="N43" t="n">
         <v>2026</v>
       </c>
@@ -2782,23 +3543,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>553792</t>
+          <t>574370</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44945</v>
+        <v>45334</v>
       </c>
       <c r="C44" t="n">
-        <v>3657860000</v>
+        <v>797878000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>934</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2806,19 +3567,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.553792/2022</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+          <t>DIPA-025.04.2.574370/2025</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>8442178001038855</t>
+        </is>
+      </c>
       <c r="N44" t="n">
         <v>2026</v>
       </c>
@@ -2836,14 +3615,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>574370</t>
+          <t>597480</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44929</v>
+        <v>45334</v>
       </c>
       <c r="C45" t="n">
-        <v>2105071000</v>
+        <v>462012000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2852,7 +3631,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>945</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2860,19 +3639,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.574370/2022</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>DIPA-025.04.2.597480/2025</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>9409050920760043</t>
+        </is>
+      </c>
       <c r="N45" t="n">
         <v>2026</v>
       </c>
@@ -2890,14 +3687,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>597480</t>
+          <t>597558</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44929</v>
+        <v>45910</v>
       </c>
       <c r="C46" t="n">
-        <v>1529071000</v>
+        <v>437830000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2906,7 +3703,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>956</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2914,19 +3711,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>C04</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SATKER_REVISI</t>
+        </is>
+      </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.597480/2022</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>DIPA-025.04.2.597558/2025</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>9570546201451234</t>
+        </is>
+      </c>
       <c r="N46" t="n">
         <v>2026</v>
       </c>
@@ -2944,56 +3759,64 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>600092</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44895</v>
+        <v>45901</v>
       </c>
       <c r="C47" t="n">
-        <v>1733771000</v>
+        <v>711127800000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>971</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.597558/2022</t>
+          <t>DIPA-999.05.6.600092/2025</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>5670944026470139</t>
+        </is>
+      </c>
       <c r="N47" t="n">
         <v>2026</v>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>KEMENAG</t>
-        </is>
-      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3002,10 +3825,10 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44914</v>
+        <v>44969</v>
       </c>
       <c r="C48" t="n">
-        <v>2466358000</v>
+        <v>2631518000</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3014,7 +3837,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>974</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3022,19 +3845,37 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>RKAKL_AWAL</t>
+        </is>
+      </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.632013/2022</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+          <t>DIPA-013.05.2.632013/2024</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0103359033057990</t>
+        </is>
+      </c>
       <c r="N48" t="n">
         <v>2026</v>
       </c>
@@ -3056,10 +3897,10 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44930</v>
+        <v>45998</v>
       </c>
       <c r="C49" t="n">
-        <v>67957467000</v>
+        <v>70216158000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3068,7 +3909,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>996</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3076,19 +3917,37 @@
           <t>060</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>A07</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I49" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DIPA-060.01.2.641681/2022</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+          <t>DIPA-060.01.2.641681/2025</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0054424045205354</t>
+        </is>
+      </c>
       <c r="N49" t="n">
         <v>2026</v>
       </c>
@@ -3110,10 +3969,10 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44910</v>
+        <v>44969</v>
       </c>
       <c r="C50" t="n">
-        <v>1607532000</v>
+        <v>1642553000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3122,7 +3981,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3130,19 +3989,37 @@
           <t>013</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>RKAKL_AWAL</t>
+        </is>
+      </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DIPA-013.05.2.653271/2022</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>DIPA-013.05.2.653271/2024</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>6608054399219174</t>
+        </is>
+      </c>
       <c r="N50" t="n">
         <v>2026</v>
       </c>
@@ -3160,68 +4037,86 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>653530</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44896</v>
+        <v>46002</v>
       </c>
       <c r="C51" t="n">
-        <v>9963006000</v>
+        <v>6636346000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>024</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>C01</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SATKER_REVISI</t>
+        </is>
+      </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DIPA-024.11.2.653530/2022</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>DIPA-076.01.2.656553/2025</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0255040243774200</t>
+        </is>
+      </c>
       <c r="N51" t="n">
         <v>2026</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>76</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>KEMENKES</t>
+          <t>KPU</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>656553</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44916</v>
+        <v>45967</v>
       </c>
       <c r="C52" t="n">
-        <v>3729901000</v>
+        <v>6558957000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3230,7 +4125,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3238,19 +4133,37 @@
           <t>076</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>A09</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DIPA-076.01.2.656553/2022</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>DIPA-076.01.2.656560/2025</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>3622615628795020</t>
+        </is>
+      </c>
       <c r="N52" t="n">
         <v>2026</v>
       </c>
@@ -3268,14 +4181,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44916</v>
+        <v>45849</v>
       </c>
       <c r="C53" t="n">
-        <v>3588227000</v>
+        <v>6614760000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3284,7 +4197,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3292,19 +4205,37 @@
           <t>076</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>B17</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DIPA-076.01.2.656560/2022</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>DIPA-076.01.2.656574/2025</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>6099796333846823</t>
+        </is>
+      </c>
       <c r="N53" t="n">
         <v>2026</v>
       </c>
@@ -3322,68 +4253,86 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44921</v>
+        <v>45907</v>
       </c>
       <c r="C54" t="n">
-        <v>4440242000</v>
+        <v>567098000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DIPA-076.01.2.656574/2022</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>DIPA-025.04.2.661192/2025</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4793032018307169</t>
+        </is>
+      </c>
       <c r="N54" t="n">
         <v>2026</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>KPU</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44929</v>
+        <v>46001</v>
       </c>
       <c r="C55" t="n">
-        <v>1539822000</v>
+        <v>1375668000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3392,7 +4341,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3400,19 +4349,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.661192/2022</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>DIPA-025.04.2.662127/2025</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>8020029835293232</t>
+        </is>
+      </c>
       <c r="N55" t="n">
         <v>2026</v>
       </c>
@@ -3430,68 +4397,86 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>665292</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44929</v>
+        <v>45966</v>
       </c>
       <c r="C56" t="n">
-        <v>2618361000</v>
+        <v>74069711000</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Satker Sedang</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.662127/2022</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+          <t>DIPA-060.01.2.665292/2025</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>5540030176770327</t>
+        </is>
+      </c>
       <c r="N56" t="n">
         <v>2026</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>POLRI</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44930</v>
+        <v>46002</v>
       </c>
       <c r="C57" t="n">
-        <v>60905843000</v>
+        <v>51221827000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3500,7 +4485,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3508,19 +4493,37 @@
           <t>060</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DIPA-060.01.2.665292/2022</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>DIPA-060.01.2.665307/2025</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>6700076130847600</t>
+        </is>
+      </c>
       <c r="N57" t="n">
         <v>2026</v>
       </c>
@@ -3538,14 +4541,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>665307</t>
+          <t>666501</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44930</v>
+        <v>45941</v>
       </c>
       <c r="C58" t="n">
-        <v>49402997000</v>
+        <v>57389409000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3554,52 +4557,70 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>060</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>A07</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DIPA-060.01.2.665307/2022</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+          <t>DIPA-025.01.2.666501/2025</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>3042860222060990</t>
+        </is>
+      </c>
       <c r="N58" t="n">
         <v>2026</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>POLRI</t>
+          <t>KEMENAG</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>666501</t>
+          <t>666502</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44918</v>
+        <v>45968</v>
       </c>
       <c r="C59" t="n">
-        <v>2091563000</v>
+        <v>2711331000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3608,7 +4629,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3616,19 +4637,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DIPA-025.01.2.666501/2022</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+          <t>DIPA-025.03.2.666502/2025</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1120108401943142</t>
+        </is>
+      </c>
       <c r="N59" t="n">
         <v>2026</v>
       </c>
@@ -3646,23 +4685,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>666502</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44917</v>
+        <v>45940</v>
       </c>
       <c r="C60" t="n">
-        <v>9053868000</v>
+        <v>1642979000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3670,19 +4709,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DIPA-025.03.2.666502/2022</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>DIPA-025.04.2.666503/2025</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>9803708004185702</t>
+        </is>
+      </c>
       <c r="N60" t="n">
         <v>2026</v>
       </c>
@@ -3700,23 +4757,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44943</v>
+        <v>45907</v>
       </c>
       <c r="C61" t="n">
-        <v>33648425000</v>
+        <v>305413000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Kecil</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3724,19 +4781,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DIPA-025.04.2.666503/2022</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+          <t>DIPA-025.06.2.666504/2025</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>9500515308012559</t>
+        </is>
+      </c>
       <c r="N61" t="n">
         <v>2026</v>
       </c>
@@ -3754,14 +4829,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44908</v>
+        <v>45907</v>
       </c>
       <c r="C62" t="n">
-        <v>2515614000</v>
+        <v>553160000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3770,7 +4845,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1295</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3778,19 +4853,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I62" t="n">
         <v>5</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DIPA-025.06.2.666504/2022</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+          <t>DIPA-025.07.2.666505/2025</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>8364180950690711</t>
+        </is>
+      </c>
       <c r="N62" t="n">
         <v>2026</v>
       </c>
@@ -3808,14 +4901,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>666507</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44921</v>
+        <v>45907</v>
       </c>
       <c r="C63" t="n">
-        <v>1164572000</v>
+        <v>245582000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3824,7 +4917,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3832,19 +4925,37 @@
           <t>025</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>DIPA-025.07.2.666505/2022</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+          <t>DIPA-025.09.2.666507/2025</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>KANWILKL</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>5085329956520132</t>
+        </is>
+      </c>
       <c r="N63" t="n">
         <v>2026</v>
       </c>
@@ -3862,230 +4973,302 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>666506</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44872</v>
+        <v>45779</v>
       </c>
       <c r="C64" t="n">
-        <v>289284000</v>
+        <v>5899128000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DIPA-025.08.2.666506/2022</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+          <t>DIPA-054.01.2.667215/2025</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0363053065038411</t>
+        </is>
+      </c>
       <c r="N64" t="n">
         <v>2026</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>BPS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>666507</t>
+          <t>668529</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44921</v>
+        <v>45840</v>
       </c>
       <c r="C65" t="n">
-        <v>557007000</v>
+        <v>7942246000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Satker Kecil</t>
+          <t>Satker Besar</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1422</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>DIPA-025.09.2.666507/2022</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+          <t>DIPA-054.01.2.668529/2025</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0443105092573576</t>
+        </is>
+      </c>
       <c r="N65" t="n">
         <v>2026</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>KEMENAG</t>
+          <t>BPS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44943</v>
+        <v>45940</v>
       </c>
       <c r="C66" t="n">
-        <v>10276489000</v>
+        <v>7084301000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>C09</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SATKER_REVISI</t>
+        </is>
+      </c>
       <c r="I66" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>DIPA-054.01.2.667215/2022</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+          <t>DIPA-056.01.2.669055/2025</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2629402130849067</t>
+        </is>
+      </c>
       <c r="N66" t="n">
         <v>2026</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>ATR/BPN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>670561</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44909</v>
+        <v>46001</v>
       </c>
       <c r="C67" t="n">
-        <v>15076544000</v>
+        <v>7127899000</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Satker Besar</t>
+          <t>Satker Sedang</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>A08</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I67" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DIPA-054.01.2.668529/2022</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+          <t>DIPA-056.01.2.670561/2025</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>5521900675902563</t>
+        </is>
+      </c>
       <c r="N67" t="n">
         <v>2026</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>BPS</t>
+          <t>ATR/BPN</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44904</v>
+        <v>45879</v>
       </c>
       <c r="C68" t="n">
-        <v>7722334000</v>
+        <v>40006172000</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4094,52 +5277,70 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>056</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>A08</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I68" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DIPA-056.01.2.669055/2022</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+          <t>DIPA-012.22.2.685001/2025</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>3079310185341100</t>
+        </is>
+      </c>
       <c r="N68" t="n">
         <v>2026</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>ATR/BPN</t>
+          <t>KEMENHAN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>670561</t>
+          <t>686503</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44944</v>
+        <v>45937</v>
       </c>
       <c r="C69" t="n">
-        <v>5199089000</v>
+        <v>4002377000</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4148,52 +5349,70 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>056</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I69" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>DIPA-056.01.2.670561/2022</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>DIPA-115.01.2.686503/2025</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2887685482514711</t>
+        </is>
+      </c>
       <c r="N69" t="n">
         <v>2026</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>115</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>ATR/BPN</t>
+          <t>BAWASLU</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>685001</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44945</v>
+        <v>45937</v>
       </c>
       <c r="C70" t="n">
-        <v>52431449000</v>
+        <v>12792429000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4202,94 +5421,554 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>1571</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>012</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
       <c r="I70" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>DIPA-012.22.2.685001/2022</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+          <t>DIPA-024.03.2.690801/2025</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>6369793739149399</t>
+        </is>
+      </c>
       <c r="N70" t="n">
         <v>2026</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>KEMENHAN</t>
+          <t>KEMENKES</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>691653</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44923</v>
+        <v>45723</v>
       </c>
       <c r="C71" t="n">
-        <v>4739446000</v>
+        <v>3099494000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>Satker Kecil</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>DIPA-152.03.4.691653/2025</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0250002208968130</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>TRANSMIGRASI</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>692334</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6919430000</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Satker Sedang</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>A08</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>8</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>DIPA-137.04.2.692334/2025</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>4029974205019089</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>IMIGRASIPAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>692339</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7827726000</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Satker Besar</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1634</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>DIPA-137.04.2.692339/2025</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2013002825209382</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>IMIGRASIPAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>692340</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9095524000</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Satker Besar</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1666</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>5</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>DIPA-115.01.2.686503/2022</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
-        <v>2026</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>BAWASLU</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>DIPA-137.04.2.692340/2025</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0242246066350418</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>IMIGRASIPAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>692625</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2653374000</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Satker Kecil</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>A07</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>7</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>DIPA-137.04.2.692625/2025</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>3051570346322245</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>IMIGRASIPAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>692725</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1642553000</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Satker Kecil</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>DIPA-137.04.2.692725/2025</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>SATKER</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1887065446423135</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>IMIGRASIPAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>700283</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="C77" t="n">
+        <v>618589591000</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Satker Besar</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1714</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>USULAN_DIPA_REVISI</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>DIPA-999.05.6.700283/2025</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>DJA</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0162007535582165</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
